--- a/biology/Zoologie/Atractus_obesus/Atractus_obesus.xlsx
+++ b/biology/Zoologie/Atractus_obesus/Atractus_obesus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractus obesus est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractus obesus est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département d'Antioquia en Colombie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département d'Antioquia en Colombie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype et le paratype de Atractus obesus[2], deux femelles, mesurent respectivement 762 mm dont 76 mm pour la queue et 758 mm dont 90 mm pour la queue. Cette espèce présente un motif composé d'une trentaine d'anneaux noirs sur fond jaune.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype et le paratype de Atractus obesus, deux femelles, mesurent respectivement 762 mm dont 76 mm pour la queue et 758 mm dont 90 mm pour la queue. Cette espèce présente un motif composé d'une trentaine d'anneaux noirs sur fond jaune.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin obesus, « bien nourri, gras, replet », lui a été donné en référence à son corps relativement large[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin obesus, « bien nourri, gras, replet », lui a été donné en référence à son corps relativement large.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Marx, 1960 : A new colubrid snake of the genus Atractus. Fieldiana Zoology, vol. 39, no 38, p. 411-413 (texte intégral).</t>
         </is>
